--- a/Saved_file/EM002/2026_01/sap_data.xlsx
+++ b/Saved_file/EM002/2026_01/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST9355</t>
+          <t>CUST5968</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23683924</v>
+        <v>15807148</v>
       </c>
       <c r="E2" t="n">
-        <v>4003183</v>
+        <v>1872657</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -546,25 +546,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST3663</t>
+          <t>CUST9109</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18973396</v>
+        <v>12559566</v>
       </c>
       <c r="E3" t="n">
-        <v>2747888</v>
+        <v>2000721</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST4014</t>
+          <t>CUST8747</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13108348</v>
+        <v>22366790</v>
       </c>
       <c r="E4" t="n">
-        <v>1327495</v>
+        <v>4105744</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST3737</t>
+          <t>CUST8117</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24001230</v>
+        <v>24132919</v>
       </c>
       <c r="E5" t="n">
-        <v>3956983</v>
+        <v>3577133</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST1475</t>
+          <t>CUST3142</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21350035</v>
+        <v>22273352</v>
       </c>
       <c r="E6" t="n">
-        <v>4016454</v>
+        <v>4227691</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -762,25 +762,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST8770</t>
+          <t>CUST5498</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17984380</v>
+        <v>18169642</v>
       </c>
       <c r="E7" t="n">
-        <v>3059467</v>
+        <v>2683338</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST5200</t>
+          <t>CUST6623</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10451571</v>
+        <v>13748679</v>
       </c>
       <c r="E8" t="n">
-        <v>1576338</v>
+        <v>1559440</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST8122</t>
+          <t>CUST7349</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20752675</v>
+        <v>13370408</v>
       </c>
       <c r="E9" t="n">
-        <v>3450093</v>
+        <v>2563571</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -902,17 +902,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST6896</t>
+          <t>CUST1212</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>23838835</v>
+        <v>11143883</v>
       </c>
       <c r="E10" t="n">
-        <v>3055819</v>
+        <v>1686410</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST9201</t>
+          <t>CUST5346</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15629409</v>
+        <v>19659779</v>
       </c>
       <c r="E11" t="n">
-        <v>2493304</v>
+        <v>3520589</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST9201</t>
+          <t>CUST5840</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>24301915</v>
+        <v>12140362</v>
       </c>
       <c r="E12" t="n">
-        <v>4090123</v>
+        <v>1569124</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST9872</t>
+          <t>CUST8498</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18491767</v>
+        <v>15968946</v>
       </c>
       <c r="E13" t="n">
-        <v>2366881</v>
+        <v>3163212</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1145,20 +1145,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST3713</t>
+          <t>CUST7542</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18300185</v>
+        <v>19451241</v>
       </c>
       <c r="E14" t="n">
-        <v>2323974</v>
+        <v>2776624</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1172,17 +1172,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST3645</t>
+          <t>CUST8190</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8001009</v>
+        <v>24262630</v>
       </c>
       <c r="E15" t="n">
-        <v>1243528</v>
+        <v>2607967</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST7079</t>
+          <t>CUST8190</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8152471</v>
+        <v>12157615</v>
       </c>
       <c r="E16" t="n">
-        <v>1487783</v>
+        <v>2005078</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST6896</t>
+          <t>CUST7349</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9180270</v>
+        <v>14306229</v>
       </c>
       <c r="E17" t="n">
-        <v>1680941</v>
+        <v>1517253</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST3577</t>
+          <t>CUST4494</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18121457</v>
+        <v>12027747</v>
       </c>
       <c r="E18" t="n">
-        <v>3589123</v>
+        <v>1942998</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST3645</t>
+          <t>CUST7581</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12481835</v>
+        <v>23293127</v>
       </c>
       <c r="E19" t="n">
-        <v>1998154</v>
+        <v>2824807</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST1485</t>
+          <t>CUST5204</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>16704381</v>
+        <v>8641496</v>
       </c>
       <c r="E20" t="n">
-        <v>2925405</v>
+        <v>1068249</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST9872</t>
+          <t>CUST2954</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8129129</v>
+        <v>10823032</v>
       </c>
       <c r="E21" t="n">
-        <v>1442066</v>
+        <v>1376490</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST6896</t>
+          <t>CUST7003</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11024028</v>
+        <v>9285472</v>
       </c>
       <c r="E22" t="n">
-        <v>1303498</v>
+        <v>992391</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST9201</t>
+          <t>CUST7349</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>16200763</v>
+        <v>23310457</v>
       </c>
       <c r="E23" t="n">
-        <v>2276825</v>
+        <v>3474064</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1680,29 +1680,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST3922</t>
+          <t>CUST5787</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>13377681</v>
+        <v>8548757</v>
       </c>
       <c r="E24" t="n">
-        <v>2319312</v>
+        <v>1567645</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST3737</t>
+          <t>CUST8747</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10714276</v>
+        <v>24359985</v>
       </c>
       <c r="E25" t="n">
-        <v>1738899</v>
+        <v>3222074</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1793,20 +1793,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST5614</t>
+          <t>CUST7065</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20211083</v>
+        <v>13892542</v>
       </c>
       <c r="E26" t="n">
-        <v>3966839</v>
+        <v>1733735</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1820,17 +1820,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST3400</t>
+          <t>CUST7349</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>23369394</v>
+        <v>15100647</v>
       </c>
       <c r="E27" t="n">
-        <v>3236619</v>
+        <v>2805251</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-01-26</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST1833</t>
+          <t>CUST3447</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>20019416</v>
+        <v>9762144</v>
       </c>
       <c r="E28" t="n">
-        <v>3522675</v>
+        <v>1150361</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-27</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST4361</t>
+          <t>CUST5426</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>21043597</v>
+        <v>21907884</v>
       </c>
       <c r="E29" t="n">
-        <v>2541778</v>
+        <v>3667993</v>
       </c>
       <c r="F29" t="n">
         <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST2578</t>
+          <t>CUST7581</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12717983</v>
+        <v>21765245</v>
       </c>
       <c r="E30" t="n">
-        <v>1654018</v>
+        <v>2611143</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST1246</t>
+          <t>CUST7704</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8718090</v>
+        <v>21483891</v>
       </c>
       <c r="E31" t="n">
-        <v>1674704</v>
+        <v>4182424</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST7079</t>
+          <t>CUST7975</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10669608</v>
+        <v>13329863</v>
       </c>
       <c r="E32" t="n">
-        <v>1381967</v>
+        <v>1378115</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,17 +2144,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2166,25 +2166,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST9201</t>
+          <t>CUST3885</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15485450</v>
+        <v>19052072</v>
       </c>
       <c r="E33" t="n">
-        <v>1885281</v>
+        <v>3271129</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST9201</t>
+          <t>CUST5426</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>19163484</v>
+        <v>12707684</v>
       </c>
       <c r="E34" t="n">
-        <v>3069073</v>
+        <v>1546846</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-22</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST1833</t>
+          <t>CUST8190</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10527071</v>
+        <v>20021088</v>
       </c>
       <c r="E35" t="n">
-        <v>1790224</v>
+        <v>3642239</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-01-05</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST2578</t>
+          <t>CUST7380</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>13876266</v>
+        <v>8407816</v>
       </c>
       <c r="E36" t="n">
-        <v>2758810</v>
+        <v>1069405</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST6896</t>
+          <t>CUST8892</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9670324</v>
+        <v>11740037</v>
       </c>
       <c r="E37" t="n">
-        <v>1013384</v>
+        <v>2260874</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-05</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST5379</t>
+          <t>CUST7975</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>18873468</v>
+        <v>12645108</v>
       </c>
       <c r="E38" t="n">
-        <v>3178934</v>
+        <v>2131491</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST6134</t>
+          <t>CUST7380</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>12533106</v>
+        <v>12247288</v>
       </c>
       <c r="E39" t="n">
-        <v>2059039</v>
+        <v>1531798</v>
       </c>
       <c r="F39" t="n">
         <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2549,24 +2549,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST3713</t>
+          <t>CUST3142</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>17060118</v>
+        <v>18910491</v>
       </c>
       <c r="E40" t="n">
-        <v>3295764</v>
+        <v>3523109</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST6772</t>
+          <t>CUST3885</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>17191446</v>
+        <v>15520064</v>
       </c>
       <c r="E41" t="n">
-        <v>3423218</v>
+        <v>2807666</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST6896</t>
+          <t>CUST7205</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9228869</v>
+        <v>22525433</v>
       </c>
       <c r="E42" t="n">
-        <v>1761077</v>
+        <v>3494788</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST3713</t>
+          <t>CUST5426</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>19267553</v>
+        <v>13630452</v>
       </c>
       <c r="E43" t="n">
-        <v>1927719</v>
+        <v>2282474</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2760,25 +2760,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST4502</t>
+          <t>CUST5426</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>17956521</v>
+        <v>13778174</v>
       </c>
       <c r="E44" t="n">
-        <v>2002742</v>
+        <v>2074583</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2792,12 +2792,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST1833</t>
+          <t>CUST7003</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12400264</v>
+        <v>9208098</v>
       </c>
       <c r="E45" t="n">
-        <v>1865919</v>
+        <v>1793348</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST8770</t>
+          <t>CUST5346</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>15920256</v>
+        <v>16168668</v>
       </c>
       <c r="E46" t="n">
-        <v>2655035</v>
+        <v>2486072</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2922,25 +2922,25 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-01-26</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST6772</t>
+          <t>CUST4795</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>20210823</v>
+        <v>12440578</v>
       </c>
       <c r="E47" t="n">
-        <v>3555233</v>
+        <v>1631890</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST5379</t>
+          <t>CUST9109</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>15623256</v>
+        <v>13830663</v>
       </c>
       <c r="E48" t="n">
-        <v>2697928</v>
+        <v>1864008</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST1948</t>
+          <t>CUST1830</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>23763211</v>
+        <v>20056756</v>
       </c>
       <c r="E49" t="n">
-        <v>3434299</v>
+        <v>2296044</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3089,20 +3089,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST6896</t>
+          <t>CUST3447</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14150001</v>
+        <v>24436075</v>
       </c>
       <c r="E50" t="n">
-        <v>2433179</v>
+        <v>2582451</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST3577</t>
+          <t>CUST1830</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22739076</v>
+        <v>11574080</v>
       </c>
       <c r="E51" t="n">
-        <v>3905368</v>
+        <v>1226599</v>
       </c>
       <c r="F51" t="n">
         <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,17 +3170,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST6335</t>
+          <t>CUST9472</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>19794559</v>
+        <v>21852205</v>
       </c>
       <c r="E52" t="n">
-        <v>3574067</v>
+        <v>3565249</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,12 +3224,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST6069</t>
+          <t>CUST7003</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>12905116</v>
+        <v>9113179</v>
       </c>
       <c r="E53" t="n">
-        <v>1471464</v>
+        <v>1032895</v>
       </c>
       <c r="F53" t="n">
         <v>3</v>
       </c>
       <c r="G53" t="n">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST9201</t>
+          <t>CUST7205</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>15102050</v>
+        <v>9712394</v>
       </c>
       <c r="E54" t="n">
-        <v>2357197</v>
+        <v>1848417</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3354,29 +3354,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST6262</t>
+          <t>CUST8498</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>17329112</v>
+        <v>14096082</v>
       </c>
       <c r="E55" t="n">
-        <v>2319738</v>
+        <v>1701360</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-01-08</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST1475</t>
+          <t>CUST9472</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8183274</v>
+        <v>14766040</v>
       </c>
       <c r="E56" t="n">
-        <v>1507089</v>
+        <v>2208472</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,12 +3440,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST4502</t>
+          <t>CUST5204</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>18985039</v>
+        <v>18078591</v>
       </c>
       <c r="E57" t="n">
-        <v>2360350</v>
+        <v>2703228</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST3663</t>
+          <t>CUST5426</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>13676091</v>
+        <v>18174396</v>
       </c>
       <c r="E58" t="n">
-        <v>2135969</v>
+        <v>2381844</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST2578</t>
+          <t>CUST8117</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>21406182</v>
+        <v>22284897</v>
       </c>
       <c r="E59" t="n">
-        <v>3822418</v>
+        <v>3878887</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-29</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST3713</t>
+          <t>CUST7205</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10381111</v>
+        <v>15602714</v>
       </c>
       <c r="E60" t="n">
-        <v>1295696</v>
+        <v>2152081</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST6058</t>
+          <t>CUST4494</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>21430264</v>
+        <v>12185972</v>
       </c>
       <c r="E61" t="n">
-        <v>3549232</v>
+        <v>2047923</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3777,16 +3777,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.3</v>
+        <v>76.3</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>15909978</v>
+        <v>3939913</v>
       </c>
       <c r="E2" t="n">
-        <v>2431952</v>
+        <v>914535</v>
       </c>
     </row>
     <row r="3">
@@ -3796,16 +3796,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.09999999999999</v>
+        <v>75.3</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>8456001</v>
+        <v>1850696</v>
       </c>
       <c r="E3" t="n">
-        <v>1204230</v>
+        <v>506913</v>
       </c>
     </row>
     <row r="4">
@@ -3853,16 +3853,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3665118</v>
+        <v>16369328</v>
       </c>
       <c r="E6" t="n">
-        <v>916388</v>
+        <v>1826114</v>
       </c>
     </row>
     <row r="7">
@@ -3872,16 +3872,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69</v>
+        <v>65.8</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3663504</v>
+        <v>11747750</v>
       </c>
       <c r="E7" t="n">
-        <v>545577</v>
+        <v>2136721</v>
       </c>
     </row>
     <row r="8">
@@ -3891,16 +3891,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>6245464</v>
+        <v>9363940</v>
       </c>
       <c r="E8" t="n">
-        <v>1415799</v>
+        <v>2185265</v>
       </c>
     </row>
     <row r="9">
@@ -3910,16 +3910,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>4075558</v>
+        <v>1732549</v>
       </c>
       <c r="E9" t="n">
-        <v>930823</v>
+        <v>359746</v>
       </c>
     </row>
     <row r="10">
@@ -3929,16 +3929,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.90000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>13846195</v>
+        <v>2612419</v>
       </c>
       <c r="E10" t="n">
-        <v>3156134</v>
+        <v>555143</v>
       </c>
     </row>
     <row r="11">
@@ -3967,16 +3967,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>4047565</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>829251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>5659069</v>
+        <v>9759250</v>
       </c>
       <c r="E13" t="n">
-        <v>1373549</v>
+        <v>2732126</v>
       </c>
     </row>
     <row r="14">
@@ -4005,16 +4005,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.1</v>
+        <v>63.7</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>7364918</v>
+        <v>11632252</v>
       </c>
       <c r="E14" t="n">
-        <v>1206353</v>
+        <v>1908843</v>
       </c>
     </row>
     <row r="15">
@@ -4024,16 +4024,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74.5</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4442144</v>
+        <v>3697030</v>
       </c>
       <c r="E15" t="n">
-        <v>831925</v>
+        <v>695010</v>
       </c>
     </row>
     <row r="16">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>15504590</v>
+        <v>10923868</v>
       </c>
       <c r="E16" t="n">
-        <v>3795689</v>
+        <v>1846881</v>
       </c>
     </row>
     <row r="17">
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>71.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>8937372</v>
+        <v>8434557</v>
       </c>
       <c r="E17" t="n">
-        <v>2033839</v>
+        <v>891686</v>
       </c>
     </row>
     <row r="18">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.8</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1796629</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>365716</v>
       </c>
     </row>
     <row r="20">
@@ -4119,16 +4119,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>6360065</v>
+        <v>14980611</v>
       </c>
       <c r="E20" t="n">
-        <v>1059009</v>
+        <v>2084697</v>
       </c>
     </row>
     <row r="21">
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4751565</v>
+        <v>10807437</v>
       </c>
       <c r="E21" t="n">
-        <v>653644</v>
+        <v>2800533</v>
       </c>
     </row>
     <row r="22">
@@ -4157,16 +4157,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>2656775</v>
+        <v>12977034</v>
       </c>
       <c r="E22" t="n">
-        <v>632878</v>
+        <v>3585511</v>
       </c>
     </row>
     <row r="23">
@@ -4176,16 +4176,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.90000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>10559463</v>
+        <v>3747003</v>
       </c>
       <c r="E23" t="n">
-        <v>1209983</v>
+        <v>1030819</v>
       </c>
     </row>
     <row r="24">
@@ -4195,16 +4195,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>79.09999999999999</v>
+        <v>74.2</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>7056514</v>
+        <v>17227276</v>
       </c>
       <c r="E24" t="n">
-        <v>1893690</v>
+        <v>2544470</v>
       </c>
     </row>
     <row r="25">
@@ -4214,16 +4214,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1085692</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>253231</v>
       </c>
     </row>
     <row r="26">
@@ -4252,16 +4252,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>61.3</v>
+        <v>71.7</v>
       </c>
       <c r="C27" t="n">
         <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>4425726</v>
+        <v>10938204</v>
       </c>
       <c r="E27" t="n">
-        <v>938613</v>
+        <v>1445367</v>
       </c>
     </row>
     <row r="28">
@@ -4271,16 +4271,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.09999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>6229143</v>
+        <v>8536868</v>
       </c>
       <c r="E28" t="n">
-        <v>1594344</v>
+        <v>2445894</v>
       </c>
     </row>
     <row r="29">
@@ -4290,16 +4290,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>3643265</v>
+        <v>16675671</v>
       </c>
       <c r="E29" t="n">
-        <v>757385</v>
+        <v>3849959</v>
       </c>
     </row>
     <row r="30">
@@ -4309,16 +4309,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.8</v>
+        <v>63.7</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>9009501</v>
+        <v>3207285</v>
       </c>
       <c r="E30" t="n">
-        <v>2636353</v>
+        <v>421641</v>
       </c>
     </row>
     <row r="31">
@@ -4328,16 +4328,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.90000000000001</v>
+        <v>61.9</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>13722486</v>
+        <v>5819353</v>
       </c>
       <c r="E31" t="n">
-        <v>2468899</v>
+        <v>1258942</v>
       </c>
     </row>
     <row r="32">
@@ -4347,16 +4347,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61.3</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2035365</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>515369</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
